--- a/template/potem12.xlsx
+++ b/template/potem12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/home/pan/highable/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5D4CCC58-91B1-7B4F-8F45-9D7E21B5C488}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043FB2AD-1697-244A-8AEF-4A9FCCF1356B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="460" windowWidth="37380" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DA057-HA0613" sheetId="1" r:id="rId1"/>
@@ -206,30 +206,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="30">
@@ -535,168 +517,167 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1217,7 +1198,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:I40"/>
+      <selection activeCell="K45" sqref="A1:K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1228,61 +1209,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62"/>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
+      <c r="A1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="67"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-      <c r="I5" s="60"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1300,21 +1289,21 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="3" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1332,19 +1321,19 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="3" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1362,19 +1351,19 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="71"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="3" t="s">
+      <c r="A8" s="23"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1392,19 +1381,19 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="71"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1422,17 +1411,17 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="71"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="A10" s="23"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1450,17 +1439,17 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="71"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1478,19 +1467,19 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1508,19 +1497,19 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1538,19 +1527,19 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1568,17 +1557,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="55"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1596,354 +1585,454 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="38" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="39"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="20"/>
-    </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="40"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="42" t="s">
+      <c r="G16" s="36"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="43"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+    </row>
+    <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="38" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="20"/>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="40"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="28"/>
-    </row>
-    <row r="20" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="42" t="s">
+      <c r="G18" s="36"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="43"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+    <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="38" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="50"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="39"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="20"/>
-    </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="40"/>
-      <c r="B21" s="41"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="22"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="42" t="s">
+      <c r="G20" s="36"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="43"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="45"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+    </row>
+    <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="39"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="38" t="s">
+      <c r="B23" s="36"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="39"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="20"/>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="28"/>
-    </row>
-    <row r="25" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="42" t="s">
+      <c r="G23" s="36"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="43"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+    </row>
+    <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="39"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="38" t="s">
+      <c r="B25" s="36"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="39"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="20"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="40"/>
-      <c r="B26" s="41"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="1:9" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="26"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-    </row>
-    <row r="28" spans="1:9" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="47" t="s">
+      <c r="G25" s="36"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+    </row>
+    <row r="27" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="61"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+    </row>
+    <row r="28" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="46"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="46"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="22"/>
-    </row>
-    <row r="30" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="64"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+    </row>
+    <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="13" t="s">
+      <c r="E30" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="13"/>
-      <c r="I30" s="12"/>
-    </row>
-    <row r="31" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="12"/>
-    </row>
-    <row r="32" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-    </row>
-    <row r="34" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="47" t="s">
+      <c r="H30" s="66"/>
+      <c r="I30" s="65"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
+      <c r="C31" s="66"/>
+      <c r="D31" s="66"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
+      <c r="I31" s="65"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+    </row>
+    <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="65"/>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+    </row>
+    <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="65"/>
+      <c r="B33" s="65"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+    </row>
+    <row r="34" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+    </row>
+    <row r="35" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="46"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="12" t="s">
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+    </row>
+    <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="64"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+    </row>
+    <row r="37" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="16" t="s">
+      <c r="C37" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="17"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="12"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="12"/>
-    </row>
-    <row r="39" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-    </row>
-    <row r="40" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="48" t="s">
+      <c r="H37" s="70"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+    </row>
+    <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="65"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="69"/>
+      <c r="D38" s="69"/>
+      <c r="E38" s="69"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+    </row>
+    <row r="39" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="65"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="65"/>
+      <c r="F39" s="65"/>
+      <c r="G39" s="65"/>
+      <c r="H39" s="65"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+    </row>
+    <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="65"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="65"/>
+      <c r="F40" s="65"/>
+      <c r="G40" s="65"/>
+      <c r="H40" s="65"/>
+      <c r="I40" s="65"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+    </row>
+    <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="25"/>
-      <c r="I42" s="25"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="49" t="s">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+    </row>
+    <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+    </row>
+    <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+    </row>
+    <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+    </row>
+    <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="49" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="50" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="51" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2898,20 +2987,27 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C25:E26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="E35:I36"/>
+    <mergeCell ref="A35:D36"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
@@ -2927,28 +3023,21 @@
     <mergeCell ref="C23:E24"/>
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="F14:I14"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="E35:I36"/>
-    <mergeCell ref="A35:D36"/>
     <mergeCell ref="H20:I21"/>
-    <mergeCell ref="C25:E26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.61875000000000002" right="0.15" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/template/potem12.xlsx
+++ b/template/potem12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/print/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{043FB2AD-1697-244A-8AEF-4A9FCCF1356B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{414E1825-A760-0F48-9F67-9616DCABEE4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="460" windowWidth="32520" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6120" yWindow="460" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DA057-HA0613" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>DELVIERY TO</t>
     </r>
@@ -43,6 +44,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> (if different from above):</t>
     </r>
@@ -117,45 +119,55 @@
       <b/>
       <sz val="30"/>
       <name val="Century Gothic"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="SimSun"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -163,36 +175,43 @@
       <sz val="9"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -517,112 +536,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="15" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -644,40 +568,149 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1198,7 +1231,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K45" sqref="A1:K45"/>
+      <selection activeCell="E35" sqref="E35:I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1209,69 +1242,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
+      <c r="A1" s="53"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="64"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1289,21 +1322,21 @@
       <c r="Z5" s="1"/>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="16" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1321,19 +1354,19 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="16" t="s">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1351,19 +1384,19 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="16" t="s">
+      <c r="A8" s="69"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1381,19 +1414,19 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="25" t="s">
+      <c r="A9" s="69"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1411,17 +1444,17 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1439,17 +1472,17 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="A11" s="69"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1467,19 +1500,19 @@
       <c r="Z11" s="1"/>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1497,19 +1530,19 @@
       <c r="Z12" s="1"/>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="29"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1527,19 +1560,19 @@
       <c r="Z13" s="1"/>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="30"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1557,17 +1590,17 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1585,450 +1618,450 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="36"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="40" t="s">
+      <c r="B16" s="37"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="43"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="40" t="s">
+      <c r="B18" s="37"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="40" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="43"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="58"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="36"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="40" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="36"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="43"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="40" t="s">
+      <c r="B25" s="37"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="36"/>
-      <c r="H25" s="60"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="6"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="61"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+      <c r="H28" s="20"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="64"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="52"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="52"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="45"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="66" t="s">
+      <c r="B30" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="66" t="s">
+      <c r="C30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="66" t="s">
+      <c r="D30" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="66" t="s">
+      <c r="E30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="66" t="s">
+      <c r="F30" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="66" t="s">
+      <c r="G30" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="66"/>
-      <c r="I30" s="65"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-    </row>
-    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
-      <c r="D31" s="66"/>
-      <c r="E31" s="66"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="74"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="72"/>
+      <c r="G31" s="71"/>
+      <c r="H31" s="71"/>
+      <c r="I31" s="74"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="65"/>
-      <c r="B32" s="65"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="65"/>
-      <c r="F32" s="65"/>
-      <c r="G32" s="65"/>
-      <c r="H32" s="65"/>
-      <c r="I32" s="65"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="74"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="74"/>
+      <c r="H32" s="74"/>
+      <c r="I32" s="74"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="65"/>
-      <c r="B33" s="65"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="74"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="74"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="62" t="s">
+      <c r="A35" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="64"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="45"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="65" t="s">
+      <c r="A37" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="69" t="s">
+      <c r="B37" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C37" s="69" t="s">
+      <c r="C37" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="69" t="s">
+      <c r="D37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="69" t="s">
+      <c r="E37" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F37" s="69" t="s">
+      <c r="F37" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="69" t="s">
+      <c r="G37" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="70"/>
-      <c r="I37" s="65"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="65"/>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="65"/>
-      <c r="B39" s="65"/>
-      <c r="C39" s="65"/>
-      <c r="D39" s="65"/>
-      <c r="E39" s="65"/>
-      <c r="F39" s="65"/>
-      <c r="G39" s="65"/>
-      <c r="H39" s="65"/>
-      <c r="I39" s="65"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
+      <c r="A39" s="74"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="74"/>
+      <c r="D39" s="74"/>
+      <c r="E39" s="74"/>
+      <c r="F39" s="74"/>
+      <c r="G39" s="74"/>
+      <c r="H39" s="74"/>
+      <c r="I39" s="74"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="65"/>
-      <c r="B40" s="65"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="65"/>
-      <c r="F40" s="65"/>
-      <c r="G40" s="65"/>
-      <c r="H40" s="65"/>
-      <c r="I40" s="65"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
+      <c r="A40" s="74"/>
+      <c r="B40" s="74"/>
+      <c r="C40" s="74"/>
+      <c r="D40" s="74"/>
+      <c r="E40" s="74"/>
+      <c r="F40" s="74"/>
+      <c r="G40" s="74"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="74"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="71" t="s">
+      <c r="A42" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
+      <c r="B42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="72" t="s">
+      <c r="A43" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
+      <c r="B43" s="21"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="21"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="47" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2987,27 +3020,19 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C25:E26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="E35:I36"/>
-    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="H6:I6"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
@@ -3024,20 +3049,28 @@
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="H20:I21"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="E35:I36"/>
+    <mergeCell ref="A35:D36"/>
+    <mergeCell ref="C25:E26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="F23:G24"/>
     <mergeCell ref="F10:I10"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.61875000000000002" right="0.15" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/template/potem12.xlsx
+++ b/template/potem12.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/print/highablePrint/template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/MAMP/htdocs/highablePrint/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{414E1825-A760-0F48-9F67-9616DCABEE4F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD8CD5C7-6A67-594E-94E3-ED1EEBC27CD4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="460" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10660" yWindow="720" windowWidth="32520" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DA057-HA0613" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -225,15 +225,21 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -423,24 +429,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -536,7 +524,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -547,131 +535,54 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -679,12 +590,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -694,24 +608,103 @@
     <xf numFmtId="15" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -731,67 +724,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>-19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="247650" cy="38100"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5222175" y="3780000"/>
-          <a:ext cx="247650" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln w="9525" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:endParaRPr sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1231,7 +1163,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35:I36"/>
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1242,67 +1174,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53"/>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="A1" s="40"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
-      <c r="F4" s="64"/>
-      <c r="G4" s="64"/>
-      <c r="H4" s="64"/>
-      <c r="I4" s="64"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="1"/>
@@ -1326,15 +1258,15 @@
         <v>21</v>
       </c>
       <c r="B6" s="5"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="3"/>
       <c r="F6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="59"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="1"/>
@@ -1354,17 +1286,17 @@
       <c r="Z6" s="1"/>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="27"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3"/>
       <c r="F7" s="6" t="s">
         <v>1</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="54"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="33"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="1"/>
@@ -1384,17 +1316,17 @@
       <c r="Z7" s="1"/>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="69"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
       <c r="E8" s="3"/>
       <c r="F8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="68"/>
-      <c r="I8" s="54"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="33"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="1"/>
@@ -1414,10 +1346,10 @@
       <c r="Z8" s="1"/>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="69"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
       <c r="E9" s="3"/>
       <c r="F9" s="7" t="s">
         <v>3</v>
@@ -1444,15 +1376,15 @@
       <c r="Z9" s="1"/>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="69"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="27"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="1"/>
@@ -1472,15 +1404,15 @@
       <c r="Z10" s="1"/>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="69"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="1"/>
@@ -1503,14 +1435,14 @@
       <c r="A12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="27"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="1"/>
@@ -1533,14 +1465,14 @@
       <c r="A13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
       <c r="L13" s="1"/>
@@ -1563,14 +1495,14 @@
       <c r="A14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="55"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="56"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="47"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="1"/>
@@ -1590,15 +1522,15 @@
       <c r="Z14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="57"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="1"/>
@@ -1618,92 +1550,92 @@
       <c r="Z15" s="1"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="36" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="37"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="24"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="42"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="25"/>
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="74"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="36" t="s">
+      <c r="B18" s="72"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="42"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="38"/>
-      <c r="B19" s="39"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="25"/>
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="74"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="43"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="36" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="24"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="42"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="38"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="45"/>
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="74"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
@@ -1721,103 +1653,103 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="36" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="38"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="25"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="37"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="36" t="s">
+      <c r="B25" s="72"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="24"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="42"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="38"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="25"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="22"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="46" t="s">
+      <c r="A28" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="24"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="77"/>
+      <c r="D28" s="78"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="48"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="42"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
     </row>
     <row r="29" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="44"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="45"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="80"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="50"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="54"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
     </row>
@@ -1849,41 +1781,41 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="74"/>
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="74"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="74"/>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
-      <c r="G32" s="74"/>
-      <c r="H32" s="74"/>
-      <c r="I32" s="74"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="74"/>
-      <c r="H33" s="74"/>
-      <c r="I33" s="74"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
     </row>
@@ -1901,30 +1833,30 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="46" t="s">
+      <c r="A35" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="24"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="42"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="44"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="45"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="54"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
     </row>
@@ -1956,41 +1888,41 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="74"/>
-      <c r="I38" s="74"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="74"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="74"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="74"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="74"/>
-      <c r="B40" s="74"/>
-      <c r="C40" s="74"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="74"/>
-      <c r="F40" s="74"/>
-      <c r="G40" s="74"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="74"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
     </row>
@@ -2008,32 +1940,32 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="47" t="s">
+      <c r="A42" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B42" s="21"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
-      <c r="I42" s="21"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="48" t="s">
+      <c r="A43" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="21"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="21"/>
-      <c r="I43" s="21"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="39"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
@@ -3020,19 +2952,28 @@
     <row r="1000" ht="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="F11:I11"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="C25:E26"/>
+    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="H23:I24"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="C16:E17"/>
+    <mergeCell ref="C18:E19"/>
+    <mergeCell ref="F20:G21"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:E21"/>
+    <mergeCell ref="F18:G19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:I17"/>
+    <mergeCell ref="F23:G24"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="E28:I29"/>
+    <mergeCell ref="A28:D29"/>
+    <mergeCell ref="A42:I42"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="E35:I36"/>
+    <mergeCell ref="A35:D36"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="E2:I2"/>
     <mergeCell ref="E3:I3"/>
@@ -3049,28 +2990,19 @@
     <mergeCell ref="A15:I15"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="H20:I21"/>
-    <mergeCell ref="E28:I29"/>
-    <mergeCell ref="A28:D29"/>
-    <mergeCell ref="A42:I42"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="E35:I36"/>
-    <mergeCell ref="A35:D36"/>
-    <mergeCell ref="C25:E26"/>
-    <mergeCell ref="A27:I27"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="C16:E17"/>
-    <mergeCell ref="C18:E19"/>
-    <mergeCell ref="F20:G21"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:E21"/>
-    <mergeCell ref="F18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="F23:G24"/>
-    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A5:I5"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="F11:I11"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.61875000000000002" right="0.15" top="0.5" bottom="0.5" header="0" footer="0"/>
